--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/Constantes.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/Constantes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maricela BF\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\PROYECTOS\QUSKI\BRE\MATRICES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4A51643-AAD0-4271-A94D-09B85A2DABDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>r06xd</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{D802CF6B-FB84-4537-81BE-918636CB7184}">
       <text>
         <r>
           <rPr>
@@ -43,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{D18C0826-F3EE-4055-85E9-FA5C38A66C6B}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>RuleSet</t>
   </si>
@@ -166,6 +167,9 @@
     <t>drools.getWorkingMemory().setGlobal("$1", "$2");</t>
   </si>
   <si>
+    <t>PerfilInternoParaCruze,5</t>
+  </si>
+  <si>
     <t>TasaInteres,16.06</t>
   </si>
   <si>
@@ -217,13 +221,28 @@
     <t>CODIGO DE TIPO CREDITO DIFERIDO</t>
   </si>
   <si>
-    <t>PerfilInternoParaCruze,11</t>
+    <t>TIPO OFERTA BALLOON</t>
+  </si>
+  <si>
+    <t>FORMA DE PAGO CAPITALIZADO</t>
+  </si>
+  <si>
+    <t>FORMA DE PAGO DIFERIDO</t>
+  </si>
+  <si>
+    <t>FormaPagoCapitalizado,C</t>
+  </si>
+  <si>
+    <t>FormaPagoDiferido,F</t>
+  </si>
+  <si>
+    <t>TipoOfertaBalloon,E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,7 +417,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -715,11 +734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +962,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>17</v>
@@ -956,7 +975,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>17</v>
@@ -969,20 +988,20 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -990,12 +1009,12 @@
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>17</v>
@@ -1003,12 +1022,12 @@
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>17</v>
@@ -1016,12 +1035,12 @@
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>17</v>
@@ -1029,12 +1048,12 @@
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>17</v>
@@ -1042,12 +1061,12 @@
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>17</v>
@@ -1055,12 +1074,12 @@
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>17</v>
@@ -1068,7 +1087,46 @@
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/Constantes.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/Constantes.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
@@ -204,6 +204,30 @@
   </si>
   <si>
     <t xml:space="preserve">MensajeErrorSinCredito,Dación MUPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODIGO ERROR SIN GARANTIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodigoErrorSinGarantia,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENSAJE DE ERROR SIN GARANTIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MensajeErrorSinGarantia,Lo sentimos no fue posible generar ofertas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCODIGO ERROR VALORES NO CUADRAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodigoErrorValoresCreditoNoCuadran,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENSAJE DE ERROR VALORES NO CUADRAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MensajeErrorValoresCreditoNoCuadran,DATOS DE CREDITO NO CUADRAN</t>
   </si>
   <si>
     <t xml:space="preserve">CODIGO DE TIPO CREDITO CUOTA</t>
@@ -397,7 +421,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -444,6 +468,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -524,10 +552,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -854,7 +882,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
@@ -863,11 +891,11 @@
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>50</v>
       </c>
@@ -876,11 +904,11 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>52</v>
       </c>
@@ -889,11 +917,11 @@
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
         <v>54</v>
       </c>
@@ -902,7 +930,7 @@
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -943,6 +971,58 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
